--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H2">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I2">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J2">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N2">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O2">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P2">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q2">
-        <v>0.6380486634842223</v>
+        <v>1.149204209798222</v>
       </c>
       <c r="R2">
-        <v>5.742437971358001</v>
+        <v>10.342837888184</v>
       </c>
       <c r="S2">
-        <v>0.004256149481902982</v>
+        <v>0.0106969764031448</v>
       </c>
       <c r="T2">
-        <v>0.004256149481902981</v>
+        <v>0.0106969764031448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H3">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I3">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J3">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.943388</v>
       </c>
       <c r="O3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q3">
-        <v>8.288481169183111</v>
+        <v>13.62447340612356</v>
       </c>
       <c r="R3">
-        <v>74.596330522648</v>
+        <v>122.620260655112</v>
       </c>
       <c r="S3">
-        <v>0.05528890953448983</v>
+        <v>0.126818775364708</v>
       </c>
       <c r="T3">
-        <v>0.05528890953448983</v>
+        <v>0.126818775364708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H4">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I4">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J4">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N4">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q4">
-        <v>0.1985005577053334</v>
+        <v>2.618623390700667</v>
       </c>
       <c r="R4">
-        <v>1.786505019348</v>
+        <v>23.567610516306</v>
       </c>
       <c r="S4">
-        <v>0.001324112241253678</v>
+        <v>0.02437456492085623</v>
       </c>
       <c r="T4">
-        <v>0.001324112241253678</v>
+        <v>0.02437456492085623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.183715333333334</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H5">
-        <v>12.551146</v>
+        <v>72.570502</v>
       </c>
       <c r="I5">
-        <v>0.09990620261132242</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J5">
-        <v>0.09990620261132242</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.385388</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N5">
-        <v>4.156164</v>
+        <v>0.501316</v>
       </c>
       <c r="O5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q5">
-        <v>5.796069018216</v>
+        <v>4.042305975625778</v>
       </c>
       <c r="R5">
-        <v>52.164621163944</v>
+        <v>36.380753780632</v>
       </c>
       <c r="S5">
-        <v>0.03866309509096552</v>
+        <v>0.03762642989547725</v>
       </c>
       <c r="T5">
-        <v>0.03866309509096552</v>
+        <v>0.03762642989547725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.183715333333334</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H6">
-        <v>12.551146</v>
+        <v>72.570502</v>
       </c>
       <c r="I6">
-        <v>0.09990620261132242</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J6">
-        <v>0.09990620261132242</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013399</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N6">
-        <v>0.040197</v>
+        <v>5.943388</v>
       </c>
       <c r="O6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q6">
-        <v>0.05605760175133334</v>
+        <v>47.92385008230845</v>
       </c>
       <c r="R6">
-        <v>0.5045184157620001</v>
+        <v>431.314650740776</v>
       </c>
       <c r="S6">
-        <v>0.0003739362627104083</v>
+        <v>0.4460828537761029</v>
       </c>
       <c r="T6">
-        <v>0.0003739362627104083</v>
+        <v>0.4460828537761028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>72.570502</v>
       </c>
       <c r="I7">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J7">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1525076666666667</v>
+        <v>0.380773</v>
       </c>
       <c r="N7">
-        <v>0.457523</v>
+        <v>1.142319</v>
       </c>
       <c r="O7">
-        <v>0.04260145387029884</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P7">
-        <v>0.04260145387029883</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q7">
-        <v>3.689185976282889</v>
+        <v>9.210962586015334</v>
       </c>
       <c r="R7">
-        <v>33.202673786546</v>
+        <v>82.89866327413802</v>
       </c>
       <c r="S7">
-        <v>0.02460898028663991</v>
+        <v>0.08573711146616443</v>
       </c>
       <c r="T7">
-        <v>0.0246089802866399</v>
+        <v>0.08573711146616443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.19016733333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H8">
-        <v>72.570502</v>
+        <v>3.979372</v>
       </c>
       <c r="I8">
-        <v>0.57765587910597</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J8">
-        <v>0.57765587910597</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.981129333333333</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N8">
-        <v>5.943388</v>
+        <v>0.501316</v>
       </c>
       <c r="O8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q8">
-        <v>47.92385008230845</v>
+        <v>0.2216580948391111</v>
       </c>
       <c r="R8">
-        <v>431.314650740776</v>
+        <v>1.994922853552</v>
       </c>
       <c r="S8">
-        <v>0.3196794874309098</v>
+        <v>0.002063228963002421</v>
       </c>
       <c r="T8">
-        <v>0.3196794874309098</v>
+        <v>0.002063228963002421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.19016733333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H9">
-        <v>72.570502</v>
+        <v>3.979372</v>
       </c>
       <c r="I9">
-        <v>0.57765587910597</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J9">
-        <v>0.57765587910597</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04744600000000001</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N9">
-        <v>0.142338</v>
+        <v>5.943388</v>
       </c>
       <c r="O9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q9">
-        <v>1.147726679297334</v>
+        <v>2.627883532481778</v>
       </c>
       <c r="R9">
-        <v>10.329540113676</v>
+        <v>23.650951792336</v>
       </c>
       <c r="S9">
-        <v>0.00765599332938399</v>
+        <v>0.02446075980012813</v>
       </c>
       <c r="T9">
-        <v>0.007655993329383989</v>
+        <v>0.02446075980012813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.19016733333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H10">
-        <v>72.570502</v>
+        <v>3.979372</v>
       </c>
       <c r="I10">
-        <v>0.57765587910597</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J10">
-        <v>0.57765587910597</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.385388</v>
+        <v>0.380773</v>
       </c>
       <c r="N10">
-        <v>4.156164</v>
+        <v>1.142319</v>
       </c>
       <c r="O10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q10">
-        <v>33.512767541592</v>
+        <v>0.5050791381853333</v>
       </c>
       <c r="R10">
-        <v>301.614907874328</v>
+        <v>4.545712243668</v>
       </c>
       <c r="S10">
-        <v>0.2235493252668007</v>
+        <v>0.004701357319112023</v>
       </c>
       <c r="T10">
-        <v>0.2235493252668007</v>
+        <v>0.004701357319112023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.19016733333333</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H11">
-        <v>72.570502</v>
+        <v>13.603937</v>
       </c>
       <c r="I11">
-        <v>0.57765587910597</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J11">
-        <v>0.57765587910597</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.013399</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N11">
-        <v>0.040197</v>
+        <v>0.501316</v>
       </c>
       <c r="O11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q11">
-        <v>0.3241240520993334</v>
+        <v>0.757763475676889</v>
       </c>
       <c r="R11">
-        <v>2.917116468894001</v>
+        <v>6.819871281091999</v>
       </c>
       <c r="S11">
-        <v>0.002162092792235722</v>
+        <v>0.007053383506055796</v>
       </c>
       <c r="T11">
-        <v>0.002162092792235722</v>
+        <v>0.007053383506055796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.794139333333333</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H12">
-        <v>8.382417999999999</v>
+        <v>13.603937</v>
       </c>
       <c r="I12">
-        <v>0.06672343314951448</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J12">
-        <v>0.06672343314951447</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1525076666666667</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N12">
-        <v>0.457523</v>
+        <v>5.943388</v>
       </c>
       <c r="O12">
-        <v>0.04260145387029884</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P12">
-        <v>0.04260145387029883</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q12">
-        <v>0.4261276700682223</v>
+        <v>8.983719546506222</v>
       </c>
       <c r="R12">
-        <v>3.835149030614</v>
+        <v>80.853475918556</v>
       </c>
       <c r="S12">
-        <v>0.00284251525938701</v>
+        <v>0.08362189694581851</v>
       </c>
       <c r="T12">
-        <v>0.002842515259387008</v>
+        <v>0.08362189694581849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.794139333333333</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H13">
-        <v>8.382417999999999</v>
+        <v>13.603937</v>
       </c>
       <c r="I13">
-        <v>0.06672343314951448</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J13">
-        <v>0.06672343314951447</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.981129333333333</v>
+        <v>0.380773</v>
       </c>
       <c r="N13">
-        <v>5.943388</v>
+        <v>1.142319</v>
       </c>
       <c r="O13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q13">
-        <v>5.535551394687111</v>
+        <v>1.726670634433667</v>
       </c>
       <c r="R13">
-        <v>49.81996255218399</v>
+        <v>15.540035709903</v>
       </c>
       <c r="S13">
-        <v>0.03692529355345553</v>
+        <v>0.01607212615048024</v>
       </c>
       <c r="T13">
-        <v>0.03692529355345552</v>
+        <v>0.01607212615048024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.794139333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H14">
-        <v>8.382417999999999</v>
+        <v>2.761776</v>
       </c>
       <c r="I14">
-        <v>0.06672343314951448</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J14">
-        <v>0.06672343314951447</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04744600000000001</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N14">
-        <v>0.142338</v>
+        <v>0.501316</v>
       </c>
       <c r="O14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q14">
-        <v>0.1325707348093333</v>
+        <v>0.153835833024</v>
       </c>
       <c r="R14">
-        <v>1.193136613284</v>
+        <v>1.384522497216</v>
       </c>
       <c r="S14">
-        <v>0.0008843226176402677</v>
+        <v>0.001431928513475235</v>
       </c>
       <c r="T14">
-        <v>0.0008843226176402674</v>
+        <v>0.001431928513475235</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.794139333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H15">
-        <v>8.382417999999999</v>
+        <v>2.761776</v>
       </c>
       <c r="I15">
-        <v>0.06672343314951448</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J15">
-        <v>0.06672343314951447</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.385388</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N15">
-        <v>4.156164</v>
+        <v>5.943388</v>
       </c>
       <c r="O15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q15">
-        <v>3.870967102728</v>
+        <v>1.823811815232</v>
       </c>
       <c r="R15">
-        <v>34.83870392455199</v>
+        <v>16.414306337088</v>
       </c>
       <c r="S15">
-        <v>0.02582156435963864</v>
+        <v>0.01697633178244172</v>
       </c>
       <c r="T15">
-        <v>0.02582156435963863</v>
+        <v>0.01697633178244172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.794139333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H16">
-        <v>8.382417999999999</v>
+        <v>2.761776</v>
       </c>
       <c r="I16">
-        <v>0.06672343314951448</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J16">
-        <v>0.06672343314951447</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.013399</v>
+        <v>0.380773</v>
       </c>
       <c r="N16">
-        <v>0.040197</v>
+        <v>1.142319</v>
       </c>
       <c r="O16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q16">
-        <v>0.03743867292733333</v>
+        <v>0.350536577616</v>
       </c>
       <c r="R16">
-        <v>0.336948056346</v>
+        <v>3.154829198544</v>
       </c>
       <c r="S16">
-        <v>0.0002497373593930352</v>
+        <v>0.003262850472724823</v>
       </c>
       <c r="T16">
-        <v>0.0002497373593930351</v>
+        <v>0.003262850472724823</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.036584666666666</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H17">
-        <v>15.109754</v>
+        <v>13.893484</v>
       </c>
       <c r="I17">
-        <v>0.1202725348371566</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J17">
-        <v>0.1202725348371566</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N17">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O17">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P17">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q17">
-        <v>0.7681177754824444</v>
+        <v>0.7738917583271112</v>
       </c>
       <c r="R17">
-        <v>6.913059979342</v>
+        <v>6.965025824944</v>
       </c>
       <c r="S17">
-        <v>0.005123784844729039</v>
+        <v>0.007203508137919936</v>
       </c>
       <c r="T17">
-        <v>0.005123784844729038</v>
+        <v>0.007203508137919935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.036584666666666</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H18">
-        <v>15.109754</v>
+        <v>13.893484</v>
       </c>
       <c r="I18">
-        <v>0.1202725348371566</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J18">
-        <v>0.1202725348371566</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>5.943388</v>
       </c>
       <c r="O18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q18">
-        <v>9.978125622950222</v>
+        <v>9.17492956486578</v>
       </c>
       <c r="R18">
-        <v>89.80313060655199</v>
+        <v>82.574366083792</v>
       </c>
       <c r="S18">
-        <v>0.06655980433933251</v>
+        <v>0.08540171034799547</v>
       </c>
       <c r="T18">
-        <v>0.06655980433933249</v>
+        <v>0.08540171034799544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.036584666666666</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H19">
-        <v>15.109754</v>
+        <v>13.893484</v>
       </c>
       <c r="I19">
-        <v>0.1202725348371566</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J19">
-        <v>0.1202725348371566</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N19">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q19">
-        <v>0.2389657960946667</v>
+        <v>1.763421194377334</v>
       </c>
       <c r="R19">
-        <v>2.150692164852</v>
+        <v>15.870790749396</v>
       </c>
       <c r="S19">
-        <v>0.001594038523154119</v>
+        <v>0.01641420623439221</v>
       </c>
       <c r="T19">
-        <v>0.001594038523154119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.036584666666666</v>
-      </c>
-      <c r="H20">
-        <v>15.109754</v>
-      </c>
-      <c r="I20">
-        <v>0.1202725348371566</v>
-      </c>
-      <c r="J20">
-        <v>0.1202725348371566</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.385388</v>
-      </c>
-      <c r="N20">
-        <v>4.156164</v>
-      </c>
-      <c r="O20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q20">
-        <v>6.977623958183998</v>
-      </c>
-      <c r="R20">
-        <v>62.79861562365599</v>
-      </c>
-      <c r="S20">
-        <v>0.046544742265216</v>
-      </c>
-      <c r="T20">
-        <v>0.04654474226521599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.036584666666666</v>
-      </c>
-      <c r="H21">
-        <v>15.109754</v>
-      </c>
-      <c r="I21">
-        <v>0.1202725348371566</v>
-      </c>
-      <c r="J21">
-        <v>0.1202725348371566</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.013399</v>
-      </c>
-      <c r="N21">
-        <v>0.040197</v>
-      </c>
-      <c r="O21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q21">
-        <v>0.06748519794866667</v>
-      </c>
-      <c r="R21">
-        <v>0.6073667815380001</v>
-      </c>
-      <c r="S21">
-        <v>0.0004501648647249935</v>
-      </c>
-      <c r="T21">
-        <v>0.0004501648647249934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.286464333333333</v>
-      </c>
-      <c r="H22">
-        <v>3.859393</v>
-      </c>
-      <c r="I22">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="J22">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.457523</v>
-      </c>
-      <c r="O22">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P22">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q22">
-        <v>0.1961956737265556</v>
-      </c>
-      <c r="R22">
-        <v>1.765761063539</v>
-      </c>
-      <c r="S22">
-        <v>0.00130873734696497</v>
-      </c>
-      <c r="T22">
-        <v>0.00130873734696497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.286464333333333</v>
-      </c>
-      <c r="H23">
-        <v>3.859393</v>
-      </c>
-      <c r="I23">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="J23">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N23">
-        <v>5.943388</v>
-      </c>
-      <c r="O23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q23">
-        <v>2.548652227053778</v>
-      </c>
-      <c r="R23">
-        <v>22.937870043484</v>
-      </c>
-      <c r="S23">
-        <v>0.01700096791440744</v>
-      </c>
-      <c r="T23">
-        <v>0.01700096791440744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.286464333333333</v>
-      </c>
-      <c r="H24">
-        <v>3.859393</v>
-      </c>
-      <c r="I24">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="J24">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N24">
-        <v>0.142338</v>
-      </c>
-      <c r="O24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q24">
-        <v>0.06103758675933335</v>
-      </c>
-      <c r="R24">
-        <v>0.5493382808340002</v>
-      </c>
-      <c r="S24">
-        <v>0.0004071556107393506</v>
-      </c>
-      <c r="T24">
-        <v>0.0004071556107393506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.286464333333333</v>
-      </c>
-      <c r="H25">
-        <v>3.859393</v>
-      </c>
-      <c r="I25">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="J25">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.385388</v>
-      </c>
-      <c r="N25">
-        <v>4.156164</v>
-      </c>
-      <c r="O25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q25">
-        <v>1.782252249828</v>
-      </c>
-      <c r="R25">
-        <v>16.040270248452</v>
-      </c>
-      <c r="S25">
-        <v>0.01188864176644959</v>
-      </c>
-      <c r="T25">
-        <v>0.01188864176644959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.286464333333333</v>
-      </c>
-      <c r="H26">
-        <v>3.859393</v>
-      </c>
-      <c r="I26">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="J26">
-        <v>0.03072048552496477</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.013399</v>
-      </c>
-      <c r="N26">
-        <v>0.040197</v>
-      </c>
-      <c r="O26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q26">
-        <v>0.01723733560233334</v>
-      </c>
-      <c r="R26">
-        <v>0.155136020421</v>
-      </c>
-      <c r="S26">
-        <v>0.0001149828864034177</v>
-      </c>
-      <c r="T26">
-        <v>0.0001149828864034177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>4.385361333333333</v>
-      </c>
-      <c r="H27">
-        <v>13.156084</v>
-      </c>
-      <c r="I27">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="J27">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.457523</v>
-      </c>
-      <c r="O27">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P27">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q27">
-        <v>0.6688012244368889</v>
-      </c>
-      <c r="R27">
-        <v>6.019211019932</v>
-      </c>
-      <c r="S27">
-        <v>0.004461286650674934</v>
-      </c>
-      <c r="T27">
-        <v>0.004461286650674933</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>4.385361333333333</v>
-      </c>
-      <c r="H28">
-        <v>13.156084</v>
-      </c>
-      <c r="I28">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="J28">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N28">
-        <v>5.943388</v>
-      </c>
-      <c r="O28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q28">
-        <v>8.687967974732443</v>
-      </c>
-      <c r="R28">
-        <v>78.191711772592</v>
-      </c>
-      <c r="S28">
-        <v>0.05795371499177438</v>
-      </c>
-      <c r="T28">
-        <v>0.05795371499177438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>4.385361333333333</v>
-      </c>
-      <c r="H29">
-        <v>13.156084</v>
-      </c>
-      <c r="I29">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="J29">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.142338</v>
-      </c>
-      <c r="O29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q29">
-        <v>0.2080678538213334</v>
-      </c>
-      <c r="R29">
-        <v>1.872610684392</v>
-      </c>
-      <c r="S29">
-        <v>0.001387931577830555</v>
-      </c>
-      <c r="T29">
-        <v>0.001387931577830554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>4.385361333333333</v>
-      </c>
-      <c r="H30">
-        <v>13.156084</v>
-      </c>
-      <c r="I30">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="J30">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.385388</v>
-      </c>
-      <c r="N30">
-        <v>4.156164</v>
-      </c>
-      <c r="O30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q30">
-        <v>6.075426966863999</v>
-      </c>
-      <c r="R30">
-        <v>54.67884270177599</v>
-      </c>
-      <c r="S30">
-        <v>0.04052657237169658</v>
-      </c>
-      <c r="T30">
-        <v>0.04052657237169658</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.385361333333333</v>
-      </c>
-      <c r="H31">
-        <v>13.156084</v>
-      </c>
-      <c r="I31">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="J31">
-        <v>0.1047214647710717</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.013399</v>
-      </c>
-      <c r="N31">
-        <v>0.040197</v>
-      </c>
-      <c r="O31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q31">
-        <v>0.05875945650533333</v>
-      </c>
-      <c r="R31">
-        <v>0.5288351085480001</v>
-      </c>
-      <c r="S31">
-        <v>0.0003919591790952156</v>
-      </c>
-      <c r="T31">
-        <v>0.0003919591790952156</v>
+        <v>0.01641420623439221</v>
       </c>
     </row>
   </sheetData>
